--- a/gantt_diagram.xlsx
+++ b/gantt_diagram.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Holló Levente\eSzivacs2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Holló Levente\eSzivacs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ADB1D7-139B-4E4A-9E34-263E8E11C068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A32E1A-20CB-4222-9263-704EE7694AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B210EFAB-924B-4A60-8CEF-576CA82F8EBB}"/>
   </bookViews>
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -178,7 +178,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +500,7 @@
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,7 +533,7 @@
         <v>45915</v>
       </c>
       <c r="G1" s="1">
-        <f t="shared" ref="G1:Z1" si="0">F1+7</f>
+        <f t="shared" ref="G1:S1" si="0">F1+7</f>
         <v>45922</v>
       </c>
       <c r="H1" s="1">
@@ -606,6 +609,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="5"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -622,7 +626,9 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -634,9 +640,10 @@
       <c r="D4" s="4">
         <v>45936</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="5"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -654,7 +661,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -667,10 +674,14 @@
       <c r="D6" s="4">
         <v>45971</v>
       </c>
+      <c r="J6" s="7"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -682,11 +693,15 @@
       <c r="D7" s="4">
         <v>45964</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
@@ -698,31 +713,29 @@
       <c r="D8" s="12">
         <v>45999</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B8:B9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gantt_diagram.xlsx
+++ b/gantt_diagram.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Holló Levente\eSzivacs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Hollo_Levente\eSzivacs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A32E1A-20CB-4222-9263-704EE7694AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F67832B-F85E-41B0-AD10-C976252C1F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B210EFAB-924B-4A60-8CEF-576CA82F8EBB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Főoldal</t>
   </si>
@@ -64,23 +64,17 @@
     <t>Feladat</t>
   </si>
   <si>
-    <t>Kezdet</t>
-  </si>
-  <si>
-    <t>Vége</t>
-  </si>
-  <si>
-    <t>Gantt-diagram, dokumentáció</t>
-  </si>
-  <si>
     <t>Csapattagok</t>
+  </si>
+  <si>
+    <t>Gantt-diagram, dokumentáció,ppt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +109,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -161,7 +162,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -183,6 +183,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -499,88 +500,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F257C5-4FD3-410D-9865-161EE9B6609E}">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" style="2" customWidth="1"/>
-    <col min="5" max="31" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="31" width="5.7109375" style="2" customWidth="1"/>
     <col min="32" max="16384" width="12.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>10</v>
+      <c r="C1" s="1">
+        <v>45908</v>
+      </c>
+      <c r="D1" s="1">
+        <f>C1+7</f>
+        <v>45915</v>
       </c>
       <c r="E1" s="1">
-        <v>45908</v>
+        <f t="shared" ref="E1:Q1" si="0">D1+7</f>
+        <v>45922</v>
       </c>
       <c r="F1" s="1">
-        <f>E1+7</f>
-        <v>45915</v>
+        <f t="shared" si="0"/>
+        <v>45929</v>
       </c>
       <c r="G1" s="1">
-        <f t="shared" ref="G1:S1" si="0">F1+7</f>
-        <v>45922</v>
+        <f t="shared" si="0"/>
+        <v>45936</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>45929</v>
+        <v>45943</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>45936</v>
+        <v>45950</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>45943</v>
+        <v>45957</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>45950</v>
+        <v>45964</v>
       </c>
       <c r="L1" s="1">
         <f t="shared" si="0"/>
-        <v>45957</v>
+        <v>45971</v>
       </c>
       <c r="M1" s="1">
         <f t="shared" si="0"/>
-        <v>45964</v>
+        <v>45978</v>
       </c>
       <c r="N1" s="1">
         <f t="shared" si="0"/>
-        <v>45971</v>
+        <v>45985</v>
       </c>
       <c r="O1" s="1">
         <f t="shared" si="0"/>
-        <v>45978</v>
+        <v>45992</v>
       </c>
       <c r="P1" s="1">
         <f t="shared" si="0"/>
-        <v>45985</v>
+        <v>45999</v>
       </c>
       <c r="Q1" s="1">
-        <f t="shared" si="0"/>
-        <v>45992</v>
-      </c>
-      <c r="R1" s="1">
-        <f t="shared" si="0"/>
-        <v>45999</v>
-      </c>
-      <c r="S1" s="1">
         <f t="shared" si="0"/>
         <v>46006</v>
       </c>
@@ -593,147 +587,106 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4">
-        <v>45908</v>
-      </c>
-      <c r="D2" s="4">
-        <v>45929</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5"/>
-      <c r="J2" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4">
-        <v>45908</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45922</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
-        <v>45922</v>
-      </c>
-      <c r="D4" s="4">
-        <v>45936</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
-        <v>45908</v>
-      </c>
-      <c r="D5" s="4">
-        <v>45950</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
-        <v>45950</v>
-      </c>
-      <c r="D6" s="4">
-        <v>45971</v>
-      </c>
-      <c r="J6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
-        <v>45936</v>
-      </c>
-      <c r="D7" s="4">
-        <v>45964</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="12">
-        <v>45978</v>
-      </c>
-      <c r="D8" s="12">
-        <v>45999</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
